--- a/data-raw/demo.xlsx
+++ b/data-raw/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">05-Sep-21</t>
+    <t xml:space="preserve">26-Aug-22</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">04-Sep-21</t>
+    <t xml:space="preserve">25-Aug-22</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">03-Sep-21</t>
+    <t xml:space="preserve">24-Aug-22</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">02-Sep-21</t>
+    <t xml:space="preserve">23-Aug-22</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">01-Sep-21</t>
+    <t xml:space="preserve">22-Aug-22</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">31-Aug-21</t>
+    <t xml:space="preserve">21-Aug-22</t>
   </si>
 </sst>
 </file>
